--- a/biology/Botanique/Chionodoxa/Chionodoxa.xlsx
+++ b/biology/Botanique/Chionodoxa/Chionodoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chionodoxa est un genre de plantes de la famille des liliacées originaire de Turquie.
-Des études récentes utilisant le séquençage de l'ADN ont montré que les espèces classées dans le genre Chionodoxa devraient être incluses dans le genre Scilla[1].
+Des études récentes utilisant le séquençage de l'ADN ont montré que les espèces classées dans le genre Chionodoxa devraient être incluses dans le genre Scilla.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d’espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Chionodoxa luciliae Boiss.</t>
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chionodoxa luciliae, appelée aussi Chionodoxa forbesii est cultivée en Europe occidentale à des fins ornementales. C'est une plante qui affectionne les sols drainés, ensoleillés ou mi-ombragés. Cette plante pérenne, peut vivre une vingtaine d'années. Les bulbes se plantent à une profondeur de 5 à 10 cm. Elle fleurit en mars. Les feuilles disparaissent en mai. Elle peut ainsi être plantée dans des pelouses, dès l'instant ou celles-ci ne sont pas trop piétinées ni tondues trop fréquemment.
 Elle supporte facilement des climats plus froids, comme au Canada, où elle fleurit moins de dix jours seulement après la fonte du couvert de neige, et ses feuilles disparaissent début juillet.
